--- a/Datasets-for-casestudy.xlsx
+++ b/Datasets-for-casestudy.xlsx
@@ -5,23 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://federationuniversity-my.sharepoint.com/personal/cbahlo_federation_edu_au/Documents/Documents/PhD/case_study_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbahlo\OneDrive - Federation University Australia\Documents\PhD\livestock-welfare-case-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2104" documentId="8_{723140B8-DFCA-418C-B453-ABBF71A4F294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{49DB774A-47F1-492E-B2E4-9384420D981C}"/>
+  <xr:revisionPtr revIDLastSave="2281" documentId="8_{723140B8-DFCA-418C-B453-ABBF71A4F294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BEAA30D0-FD86-4D19-87D4-9EA7B71DABBB}"/>
   <bookViews>
-    <workbookView xWindow="49305" yWindow="-4215" windowWidth="26685" windowHeight="15855" xr2:uid="{6322DA5B-40B5-4C91-815D-6F5437BCF908}"/>
+    <workbookView xWindow="22005" yWindow="-4305" windowWidth="26760" windowHeight="12915" xr2:uid="{6322DA5B-40B5-4C91-815D-6F5437BCF908}"/>
   </bookViews>
   <sheets>
     <sheet name="Welfare layers" sheetId="1" r:id="rId1"/>
-    <sheet name="Supporting layers" sheetId="3" r:id="rId2"/>
-    <sheet name="Disease, deficiency, parasite" sheetId="4" r:id="rId3"/>
-    <sheet name="Portals" sheetId="2" r:id="rId4"/>
-    <sheet name="Other useful collections" sheetId="5" r:id="rId5"/>
-    <sheet name="Other info" sheetId="6" r:id="rId6"/>
+    <sheet name="Conditions" sheetId="4" r:id="rId2"/>
+    <sheet name="Catalogues" sheetId="8" r:id="rId3"/>
+    <sheet name="Sources" sheetId="7" r:id="rId4"/>
+    <sheet name="Supporting layers" sheetId="3" r:id="rId5"/>
+    <sheet name="Portals" sheetId="2" r:id="rId6"/>
+    <sheet name="Other useful collections" sheetId="5" r:id="rId7"/>
+    <sheet name="Other info" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Disease, deficiency, parasite'!$A$3:$L$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Conditions!$A$3:$L$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -146,32 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D47" authorId="0" shapeId="0" xr:uid="{463835EB-005B-43C2-9750-A8CA3C639708}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Christiane Bahlo:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not used, preference given to BS zones dataset, which may later have additional layers
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B64" authorId="0" shapeId="0" xr:uid="{C093803D-FB64-450F-9243-6C2208C51547}">
+    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{C093803D-FB64-450F-9243-6C2208C51547}">
       <text>
         <r>
           <rPr>
@@ -195,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N64" authorId="0" shapeId="0" xr:uid="{69E43282-5DD5-4588-8239-793481580010}">
+    <comment ref="N59" authorId="0" shapeId="0" xr:uid="{69E43282-5DD5-4588-8239-793481580010}">
       <text>
         <r>
           <rPr>
@@ -220,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="0" shapeId="0" xr:uid="{775A95F0-3CAF-4F71-ABB4-DD2FFFAFF642}">
+    <comment ref="B60" authorId="0" shapeId="0" xr:uid="{775A95F0-3CAF-4F71-ABB4-DD2FFFAFF642}">
       <text>
         <r>
           <rPr>
@@ -250,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="784">
   <si>
     <t>Type</t>
   </si>
@@ -1092,9 +1069,6 @@
     <t>Brucellosis</t>
   </si>
   <si>
-    <t>https://www.mla.com.au/research-and-development/animal-health-welfare-and-biosecurity/diseases/infectious/johnes-disease/</t>
-  </si>
-  <si>
     <t>Johne's disease</t>
   </si>
   <si>
@@ -1284,9 +1258,6 @@
     <t>NSW RFS</t>
   </si>
   <si>
-    <t>with attribution "NSW Rural Fire Service 2019"</t>
-  </si>
-  <si>
     <t>https://portal.spatial.nsw.gov.au/portal/home/item.html?id=3de03ae1965840cfa5dcd9e4018745a7</t>
   </si>
   <si>
@@ -2028,9 +1999,6 @@
     <t>Cattle Conditions: Diseases, Deficiencies and Parasites</t>
   </si>
   <si>
-    <t>total 80 conditions</t>
-  </si>
-  <si>
     <t>included</t>
   </si>
   <si>
@@ -2211,9 +2179,6 @@
     <t>OSM_Barrier_fence.geojson</t>
   </si>
   <si>
-    <t>ESRI, not OGC WMS</t>
-  </si>
-  <si>
     <t>LASSI - Land and Survey Spatial Information</t>
   </si>
   <si>
@@ -2362,13 +2327,265 @@
   </si>
   <si>
     <t>https://www.agric.wa.gov.au/livestock-biosecurity/conditions-entry-stock-relation-tick-western-australia</t>
+  </si>
+  <si>
+    <t>Department of Regional New South Wales. (2020). Conservation value of NSW Travelling Stock Reserves (TSRs). Retrieved from: https://datasets.seed.nsw.gov.au/dataset/travelling-stock-reserves. Accessed 15 November 2020</t>
+  </si>
+  <si>
+    <t>State of Queensland (Department of Natural Resources, Mines and Energy). (2013). Stock routes - Queensland. Retrieved from: http://qldspatial.information.qld.gov.au/catalogue/custom/search.page?q=%22Stock%20routes%20-%20Queensland%22. Accessed 15 November 2020</t>
+  </si>
+  <si>
+    <t>Queensland Department of Agriculture and Fisheries. (2016). Queensland wild dog barrier and check fences 2016. Retrieved from: http://qldspatial.information.qld.gov.au/catalogue/custom/detail.page?fid={14E8AEDE-7EC5-445B-9FDE-31B7FF2025DA}. Accessed 17 October 2020</t>
+  </si>
+  <si>
+    <t>Department of Agriculture and Food, Western Australia. State Barrier Fence (DPIRD-025). Retrieved from: https://services.slip.wa.gov.au/public/rest/services/SLIP_Public_Services/Buildings_and_Structures/MapServer/0. Accessed 12 October 2020</t>
+  </si>
+  <si>
+    <t>OpenStreetMap contributors. (2020). Dingozaun dump. Retrieved from: https://www.openstreetmap.org/relation/3776543. Accessed 11 October 2020</t>
+  </si>
+  <si>
+    <t>Australian Bureau of Agricultural and Resource Economics. (2006). Invasive species - Vertebrate Animals - National Survey 2006 - Dataset - Flat database structure (7 columns). Retrieved from: https://data.agriculture.gov.au/geonetwork/srv/eng/catalog.search#/metadata/fb519f28-e3e7-4617-947d-170d6cba4841. Accessed 11 October 2020</t>
+  </si>
+  <si>
+    <t>Biosecurity Queensland. (2016). Cattle tick zones - Queensland. Retrieved from: http://qldspatial.information.qld.gov.au/catalogue/custom/detail.page?fid={142D5849-A68F-4E74-A14A-0936F32050C4}. Accessed 2 November 2020</t>
+  </si>
+  <si>
+    <t>Queensland Department of Agriculture and Fisheries. (2014). Agricultural land audit - frequency of 75kmph cyclonic wind gusts - Queensland. Retrieved from: http://qldspatial.information.qld.gov.au/catalogue/custom/detail.page?fid={B5CD0878-AE5D-4C12-ADFC-B12D17890CE9}. Accessed 19 October 2020</t>
+  </si>
+  <si>
+    <t>Queensland Department of Agriculture and Fisheries. (2014). Agricultural land audit - frequency of 150kmph cyclonic wind gusts - Queensland. Retrieved from: http://qldspatial.information.qld.gov.au/catalogue/custom/detail.page?fid={B9D033E3-835D-436F-A9D5-0A492DE97272}. Accessed 19 October 2020</t>
+  </si>
+  <si>
+    <t>NSW Rural Fires Service. (2020). NSW Bush Fire Prone Land. Retrieved from: https://portal.spatial.nsw.gov.au/portal/home/item.html?id=3de03ae1965840cfa5dcd9e4018745a7. Accessed 6 November 2020</t>
+  </si>
+  <si>
+    <t>Government of Western Australia Department of Primary Industries and Regional Development. (2018). Soil Landscape Mapping - Rangelands (DPIRD-063). Retrieved from: https://catalogue.data.wa.gov.au/dataset/soil-landscape-mapping-rangelands. Accessed 5 November 2020</t>
+  </si>
+  <si>
+    <t>Australian Government Bureau of Meteorology. (2016). Seasonal rainfall - all zones. Retrieved from: http://www.bom.gov.au/jsp/ncc/climate_averages/climate-classifications/index.jsp?maptype=seasb#maps. Accessed 3 October 2020</t>
+  </si>
+  <si>
+    <t>Information sources accessed for cattle diseases, deficiencies and toxins</t>
+  </si>
+  <si>
+    <t>https://www.agriculture.gov.au/pests-diseases-weeds/animal</t>
+  </si>
+  <si>
+    <t>https://www.animalhealthaustralia.com.au/</t>
+  </si>
+  <si>
+    <t>https://www.farmbiosecurity.com.au/</t>
+  </si>
+  <si>
+    <t>https://www.outbreak.gov.au/pests-and-diseases</t>
+  </si>
+  <si>
+    <t>https://www.oie.int/en/animal-health-in-the-world/information-on-aquatic-and-terrestrial-animal-diseases/</t>
+  </si>
+  <si>
+    <t>https://www.mla.com.au/research-and-development/animal-health-welfare-and-biosecurity/</t>
+  </si>
+  <si>
+    <t>https://publications.mla.com.au/login/eaccess?elink=rnS6UxS0cYs3sn95fjSm</t>
+  </si>
+  <si>
+    <t>https://mbfp.mla.com.au/herd-health-and-welfare/tool-6.07cattle-disease-guide/</t>
+  </si>
+  <si>
+    <t>https://www.mla.com.au/research-and-development/animal-health-welfare-and-biosecurity/poisonings/toxic-plants/</t>
+  </si>
+  <si>
+    <t>https://www.agriculture.gov.au/ag-farm-food/food/nrs/animal-residue-monitoring</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/</t>
+  </si>
+  <si>
+    <t>https://www.cabi.org/isc/</t>
+  </si>
+  <si>
+    <t>https://www.msdvetmanual.com/</t>
+  </si>
+  <si>
+    <t>https://data.gov.au/</t>
+  </si>
+  <si>
+    <t>Australian Bureau of Agricultural and Resource Economics and Sciences (ABARES)</t>
+  </si>
+  <si>
+    <t>https://www.agriculture.gov.au/abares</t>
+  </si>
+  <si>
+    <t>https://www.data.vic.gov.au/</t>
+  </si>
+  <si>
+    <t>https://data.nsw.gov.au/</t>
+  </si>
+  <si>
+    <t>https://www.data.qld.gov.au/</t>
+  </si>
+  <si>
+    <t>https://data.sa.gov.au/</t>
+  </si>
+  <si>
+    <t>https://data.nt.gov.au/</t>
+  </si>
+  <si>
+    <t>https://www.data.wa.gov.au/</t>
+  </si>
+  <si>
+    <t>https://www.data.act.gov.au/</t>
+  </si>
+  <si>
+    <t>https://data.thelist.tas.gov.au/</t>
+  </si>
+  <si>
+    <t>https://data.csiro.au/dap/home?execution=e1s1</t>
+  </si>
+  <si>
+    <t>Research Data Australia</t>
+  </si>
+  <si>
+    <t>https://researchdata.ands.org.au/</t>
+  </si>
+  <si>
+    <t>Meat &amp; Livestock Australia (MLA)</t>
+  </si>
+  <si>
+    <t>https://www.mla.com.au/</t>
+  </si>
+  <si>
+    <t>Australian Bureau of Statistics (ABS)</t>
+  </si>
+  <si>
+    <t>https://www.abs.gov.au/Agriculture</t>
+  </si>
+  <si>
+    <t>Figshare</t>
+  </si>
+  <si>
+    <t>https://figshare.com/</t>
+  </si>
+  <si>
+    <t>Dryad</t>
+  </si>
+  <si>
+    <t>https://datadryad.org/search</t>
+  </si>
+  <si>
+    <t>Zenodo</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/</t>
+  </si>
+  <si>
+    <t>Australian Government’s Bureau of Meteorology (BOM)</t>
+  </si>
+  <si>
+    <t>http://www.bom.gov.au/climate/data/</t>
+  </si>
+  <si>
+    <t>Atlas of Living Australia (ALA)</t>
+  </si>
+  <si>
+    <t>https://www.ala.org.au/</t>
+  </si>
+  <si>
+    <t>Google Dataset Search</t>
+  </si>
+  <si>
+    <t>https://datasetsearch.research.google.com/</t>
+  </si>
+  <si>
+    <t>https://www.seed.nsw.gov.au/</t>
+  </si>
+  <si>
+    <t>http://data2.cerdi.edu.au/</t>
+  </si>
+  <si>
+    <t>https://www.auscope.org.au/</t>
+  </si>
+  <si>
+    <t>NSW Government SEED Sharing and Enabling Environmental Data</t>
+  </si>
+  <si>
+    <t>CeRDI Federation University Australia FedUni research data catalogue</t>
+  </si>
+  <si>
+    <t>National Collaborative Research Infrastructure Strategy (NCRIS) AuScope</t>
+  </si>
+  <si>
+    <t>Australian Government - data.gov.au</t>
+  </si>
+  <si>
+    <t>DataVic - State Government of Victoria</t>
+  </si>
+  <si>
+    <t>Queensland Government - Open Data Portal</t>
+  </si>
+  <si>
+    <t>Data.SA - South Australian Government Data Directory</t>
+  </si>
+  <si>
+    <t>Northern Territory Government - data.nt.gov.au</t>
+  </si>
+  <si>
+    <t>Government of Western Australia - data.wa.gov.au</t>
+  </si>
+  <si>
+    <t>Australian Capital Territory Government Open Data Portal - dataACT</t>
+  </si>
+  <si>
+    <t>New South Wales Government - Data.NSW</t>
+  </si>
+  <si>
+    <t>Tasmanian Government - theLIST</t>
+  </si>
+  <si>
+    <t>Commonwealth Scientific and Industrial Research Organisation (CSIRO) - Data Access Portal</t>
+  </si>
+  <si>
+    <t>Data catalogues and other sources for dataset searches</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Catalog/repository</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>no information found</t>
+  </si>
+  <si>
+    <t>https://www.animalhealthaustralia.com.au/what-we-do/endemic-disease/johnes-disease-in-cattle/spread-and-prevalence/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This disease is uncommon in beef cattle and less likely to occur in the northern and western parts of Australia . It is a notifiable disease which was initially addressed by the National BJD Strategic Plan 2012-2020, which included a zoning, but is now managed by the BJD in Cattle Framework and the zones have been removed. </t>
+  </si>
+  <si>
+    <t>Other notes</t>
+  </si>
+  <si>
+    <t>Diseases, deficiencies and parasites listing with information sources and search results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2477,6 +2694,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2531,7 +2771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2548,8 +2788,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2560,8 +2809,9 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2579,9 +2829,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="7" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2651,9 +2898,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2692,14 +2936,44 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="10"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="10" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="10" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
     <cellStyle name="Bad" xfId="7" builtinId="27"/>
     <cellStyle name="Explanatory Text" xfId="9" builtinId="53"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
+    <cellStyle name="Heading 2" xfId="10" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28"/>
@@ -3016,11 +3290,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA251A46-95AA-4011-A2D5-4191D82BD7BC}">
-  <dimension ref="A1:Q183"/>
+  <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3037,73 +3311,73 @@
     <col min="10" max="10" width="24.42578125" style="9" customWidth="1"/>
     <col min="11" max="11" width="37.42578125" style="9" customWidth="1"/>
     <col min="12" max="12" width="36.7109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="68.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="102.5703125" style="9" customWidth="1"/>
     <col min="14" max="14" width="26.42578125" style="9" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="C1" s="38"/>
-    </row>
-    <row r="3" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="B1" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="36"/>
+    </row>
+    <row r="3" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="24" t="s">
-        <v>335</v>
+      <c r="M3" s="23" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+      <c r="A5" s="25"/>
     </row>
     <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>64</v>
@@ -3114,7 +3388,7 @@
       <c r="G6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="10" t="s">
@@ -3123,107 +3397,107 @@
       <c r="J6" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="22" t="s">
+    <row r="7" spans="1:13" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D7" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="22" t="s">
+    <row r="8" spans="1:13" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D8" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="1:13" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D9" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+    <row r="10" spans="1:13" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
       <c r="B10" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>64</v>
@@ -3248,13 +3522,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+    <row r="11" spans="1:13" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
       <c r="B11" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>30</v>
@@ -3279,16 +3553,16 @@
         <v>49</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="49" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>30</v>
@@ -3313,208 +3587,214 @@
         <v>51</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D13" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="22" t="s">
+    <row r="14" spans="1:13" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="21" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D14" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="22" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="22" t="s">
+    <row r="15" spans="1:13" s="21" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="21" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D15" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="G15" s="22" t="s">
+      <c r="E15" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+      <c r="A16" s="25"/>
     </row>
     <row r="17" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>342</v>
+      <c r="B17" s="49" t="s">
+        <v>341</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="F17" s="32">
+        <v>308</v>
+      </c>
+      <c r="F17" s="31">
         <v>44113</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>344</v>
+        <v>709</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="9" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="32"/>
+      <c r="F18" s="31"/>
       <c r="G18" s="9" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="9" t="s">
-        <v>386</v>
+      <c r="A19" s="25"/>
+      <c r="B19" s="49" t="s">
+        <v>384</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="G19" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G19" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="30" t="s">
-        <v>383</v>
+      <c r="H19" s="29" t="s">
+        <v>381</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-    </row>
-    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="9" t="s">
+      <c r="A20" s="25"/>
+    </row>
+    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="49" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>30</v>
@@ -3525,26 +3805,29 @@
       <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="28" t="s">
+      <c r="J21" s="27" t="s">
         <v>75</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="9" t="s">
+      <c r="M21" s="9" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="49" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>30</v>
@@ -3555,106 +3838,109 @@
       <c r="G22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="32" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="27" t="s">
         <v>75</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="M22" s="9" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F23" s="9">
         <v>2020</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>306</v>
+        <v>514</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>305</v>
       </c>
       <c r="I23" t="s">
-        <v>517</v>
-      </c>
-      <c r="J23" s="28"/>
+        <v>515</v>
+      </c>
+      <c r="J23" s="27"/>
       <c r="K23" s="9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="9" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="9" t="s">
-        <v>525</v>
-      </c>
       <c r="C24" s="9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F24" s="9">
         <v>2020</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>306</v>
+        <v>514</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>305</v>
       </c>
       <c r="I24" t="s">
-        <v>517</v>
-      </c>
-      <c r="J24" s="28"/>
+        <v>515</v>
+      </c>
+      <c r="J24" s="27"/>
       <c r="K24" s="9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="H25" s="33"/>
-      <c r="J25" s="28"/>
+      <c r="A25" s="25"/>
+      <c r="H25" s="32"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+      <c r="A26" s="25"/>
     </row>
     <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="F27" s="34">
+        <v>308</v>
+      </c>
+      <c r="F27" s="33">
         <v>2016</v>
       </c>
       <c r="H27" s="9" t="s">
@@ -3671,18 +3957,18 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" t="s">
         <v>85</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F28" s="9">
         <v>2016</v>
@@ -3694,57 +3980,60 @@
         <v>78</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="22" t="s">
+    <row r="29" spans="1:13" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="D29" s="22" t="s">
+      <c r="C29" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="H29" s="22" t="s">
+      <c r="E29" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="H29" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="L29" s="35" t="s">
+      <c r="L29" s="48" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" t="s">
         <v>87</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J30" s="28" t="s">
+      <c r="J30" s="27" t="s">
         <v>75</v>
       </c>
       <c r="K30" s="10" t="s">
@@ -3752,12 +4041,15 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" t="s">
         <v>125</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>126</v>
@@ -3776,15 +4068,18 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="23" t="s">
-        <v>496</v>
+      <c r="A32" s="25"/>
+      <c r="B32" t="s">
+        <v>494</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>28</v>
@@ -3806,18 +4101,22 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33"/>
     </row>
     <row r="34" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="11" t="s">
-        <v>382</v>
+      <c r="A34" s="25"/>
+      <c r="B34" t="s">
+        <v>380</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F34" s="9">
         <v>2020</v>
@@ -3826,39 +4125,39 @@
         <v>31</v>
       </c>
       <c r="H34" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="I34" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>385</v>
-      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
+      <c r="A35" s="25"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
+      <c r="A36" s="25"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
+      <c r="A37" s="25"/>
     </row>
     <row r="38" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="B38" s="23" t="s">
-        <v>298</v>
-      </c>
       <c r="C38" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>172</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F38" s="9">
         <v>2020</v>
@@ -3867,103 +4166,109 @@
         <v>9</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I38" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="K38" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="23" t="s">
-        <v>324</v>
+      <c r="M38" s="9" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="49" t="s">
+        <v>323</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>172</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F39" s="9">
         <v>2020</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="J39" s="36" t="s">
-        <v>305</v>
+        <v>321</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>304</v>
       </c>
       <c r="K39" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F40" s="21">
+        <v>2010</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="21" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="F40" s="22">
-        <v>2010</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="J40" s="22" t="s">
+      <c r="J40" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="K40" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
+      <c r="K40" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
     </row>
     <row r="41" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F41" s="9">
         <v>2019</v>
@@ -3972,110 +4277,110 @@
         <v>31</v>
       </c>
       <c r="H41" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K41" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="I41" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>378</v>
-      </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
+      <c r="A42" s="25"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
+      <c r="A43" s="25"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
+      <c r="A44" s="25"/>
     </row>
     <row r="45" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="D45" s="22" t="s">
+      <c r="C45" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="E45" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="F45" s="22">
+      <c r="E45" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F45" s="21">
         <v>2016</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="22" t="s">
+      <c r="I45" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="J45" s="31" t="s">
+      <c r="J45" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="K45" s="31" t="s">
+      <c r="K45" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="50" t="s">
-        <v>693</v>
+      <c r="A46" s="25"/>
+      <c r="B46" t="s">
+        <v>689</v>
       </c>
       <c r="C46" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="E46" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F46">
         <v>2018</v>
       </c>
       <c r="G46" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H46" t="s">
         <v>88</v>
       </c>
       <c r="I46" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46"/>
       <c r="M46" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="23" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="51" t="s">
         <v>38</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>325</v>
+        <v>30</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F47" s="9">
         <v>2016</v>
@@ -4086,30 +4391,33 @@
       <c r="H47" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="I47" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J47" s="28" t="s">
+      <c r="J47" s="27" t="s">
         <v>75</v>
       </c>
       <c r="K47" s="9" t="s">
         <v>22</v>
       </c>
       <c r="L47" s="9"/>
+      <c r="M47" s="9" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="48" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D48" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F48" s="9">
         <v>2019</v>
@@ -4123,7 +4431,7 @@
       <c r="I48" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J48" s="28" t="s">
+      <c r="J48" s="27" t="s">
         <v>75</v>
       </c>
       <c r="K48" s="9" t="s">
@@ -4131,34 +4439,34 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="9" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D49" t="s">
         <v>64</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="J49" s="28"/>
+        <v>696</v>
+      </c>
+      <c r="J49" s="27"/>
       <c r="L49" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
       <c r="B50" s="9" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D50" t="s">
         <v>64</v>
@@ -4167,117 +4475,117 @@
         <v>31</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="J50" s="28"/>
+        <v>699</v>
+      </c>
+      <c r="J50" s="27"/>
       <c r="L50" s="9" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="23" t="s">
-        <v>601</v>
+      <c r="A51" s="25"/>
+      <c r="B51" s="49" t="s">
+        <v>598</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D51" t="s">
         <v>30</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F51" s="9">
         <v>2020</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>24</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K51" t="s">
+        <v>594</v>
+      </c>
+      <c r="M51" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="M51" s="9" t="s">
-        <v>600</v>
-      </c>
     </row>
     <row r="52" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="9" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D52" t="s">
         <v>64</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I52" s="10"/>
       <c r="K52"/>
       <c r="L52" s="9" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D53" t="s">
         <v>30</v>
       </c>
       <c r="E53" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="J53" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>403</v>
-      </c>
       <c r="K53" s="9" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
+      <c r="A54" s="25"/>
     </row>
     <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="23" t="s">
-        <v>411</v>
+      <c r="B55" t="s">
+        <v>409</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>172</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F55" s="9">
         <v>2020</v>
@@ -4292,906 +4600,886 @@
         <v>145</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
+      <c r="A56" s="25"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
+      <c r="A57" s="25"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-    </row>
-    <row r="60" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
+      <c r="A58" s="25"/>
+    </row>
+    <row r="59" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F59" s="9">
+        <v>2018</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="K59" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="28"/>
+      <c r="B60" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="F60" s="21">
+        <v>2011</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="I60" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="J60" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="K60" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="M60" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F61" s="9">
+        <v>2019</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
+      <c r="A62" s="25"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-    </row>
-    <row r="64" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>300</v>
+      <c r="A63" s="25"/>
+    </row>
+    <row r="64" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>392</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>325</v>
+        <v>386</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>302</v>
+        <v>399</v>
       </c>
       <c r="F64" s="9">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>301</v>
+        <v>398</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="K64" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="N64" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
+        <v>24</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
       <c r="B65" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="F65" s="22">
-        <v>2011</v>
-      </c>
-      <c r="G65" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="H65" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="I65" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="J65" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="K65" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="M65" s="22" t="s">
-        <v>336</v>
+        <v>393</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F65" s="9">
+        <v>2020</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="9" t="s">
-        <v>348</v>
+      <c r="A66" s="25"/>
+      <c r="B66" s="22" t="s">
+        <v>394</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="F66" s="9">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="J66" s="10" t="s">
-        <v>305</v>
+        <v>24</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>401</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="25"/>
+      <c r="B67" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F67" s="9">
+        <v>2020</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="B68" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F68" s="9">
+        <v>2020</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+      <c r="B69" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F69" s="9">
+        <v>2020</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="25"/>
+      <c r="B70" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F70" s="9">
+        <v>2020</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-    </row>
-    <row r="73" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>394</v>
+      <c r="A71" s="25"/>
+      <c r="B71" s="22"/>
+    </row>
+    <row r="72" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="B72" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F72" s="9">
+        <v>2020</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="B73" s="22" t="s">
+        <v>499</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F73" s="9">
         <v>2020</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>400</v>
+        <v>501</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>24</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="J73" s="9" t="s">
-        <v>403</v>
+        <v>503</v>
+      </c>
+      <c r="J73" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="F74" s="9">
-        <v>2020</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="K74" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
-      <c r="B75" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="F75" s="9">
-        <v>2020</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="K75" s="9" t="s">
-        <v>512</v>
-      </c>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
     </row>
     <row r="76" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
-      <c r="B76" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="C76" s="9" t="s">
+      <c r="A76" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
         <v>388</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="F76" s="9">
-        <v>2020</v>
+        <v>308</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>400</v>
+        <v>31</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="J76" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="K76" s="9" t="s">
-        <v>511</v>
+        <v>16</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K76" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>388</v>
+      <c r="A77" s="25"/>
+      <c r="B77" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" t="s">
+        <v>389</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>401</v>
+        <v>308</v>
       </c>
       <c r="F77" s="9">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>403</v>
+        <v>9</v>
+      </c>
+      <c r="H77" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>510</v>
+        <v>19</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="F78" s="9">
-        <v>2020</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="J78" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="K78" s="9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-      <c r="B79" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="F79" s="9">
-        <v>2020</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="K79" s="9" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
-      <c r="B80" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="C80" s="9" t="s">
+      <c r="A78" s="25"/>
+      <c r="B78" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="F80" s="9">
-        <v>2020</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="K80" s="9" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>392</v>
+      <c r="D78" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F78" s="21">
+        <v>2016</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J78" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K78" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" s="32" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="25"/>
+      <c r="B79" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>386</v>
+      </c>
+      <c r="G79" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K79" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="L79" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="M79" s="32" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="B81" s="49" t="s">
+        <v>639</v>
+      </c>
+      <c r="C81" t="s">
+        <v>386</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>401</v>
+        <v>648</v>
       </c>
       <c r="F81" s="9">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>503</v>
+        <v>157</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="J81" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K81" s="9" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
-    </row>
-    <row r="84" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J84" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K84" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="L84" s="9" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
-      <c r="B85" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="F85" s="9">
-        <v>2016</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I85" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J85" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K85" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
-      <c r="B86" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="F86" s="9">
-        <v>2016</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H86" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J86" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K86" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
-      <c r="B87" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="G87" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H87" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="K87" s="33" t="s">
-        <v>652</v>
-      </c>
-      <c r="L87" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
-      <c r="I88" s="37"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
-    </row>
-    <row r="91" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="F91" s="9">
-        <v>2006</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
+      <c r="I81" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="25"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="25"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="25"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="25"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="25"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="25"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="25"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="25"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="25"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="25"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="25"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="25"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="25"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="25"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
+      <c r="A97" s="25"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="26"/>
+      <c r="A98" s="25"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="26"/>
+      <c r="A99" s="25"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="26"/>
+      <c r="A100" s="25"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="26"/>
+      <c r="A101" s="25"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="26"/>
+      <c r="A102" s="25"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="26"/>
+      <c r="A103" s="25"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="26"/>
+      <c r="A104" s="25"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="26"/>
+      <c r="A105" s="25"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="26"/>
+      <c r="A106" s="25"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="26"/>
+      <c r="A107" s="25"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="26"/>
+      <c r="A108" s="25"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
+      <c r="A109" s="25"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="26"/>
+      <c r="A110" s="25"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="26"/>
+      <c r="A111" s="25"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="26"/>
+      <c r="A112" s="25"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="26"/>
+      <c r="A113" s="25"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="26"/>
+      <c r="A114" s="25"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="26"/>
+      <c r="A115" s="25"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="26"/>
+      <c r="A116" s="25"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="26"/>
+      <c r="A117" s="25"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="26"/>
+      <c r="A118" s="25"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="26"/>
+      <c r="A119" s="25"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="26"/>
+      <c r="A120" s="25"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="26"/>
+      <c r="A121" s="25"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="26"/>
+      <c r="A122" s="25"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="26"/>
+      <c r="A123" s="25"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="26"/>
+      <c r="A124" s="25"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="26"/>
+      <c r="A125" s="25"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="26"/>
+      <c r="A126" s="25"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="26"/>
+      <c r="A127" s="25"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="26"/>
+      <c r="A128" s="25"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="26"/>
+      <c r="A129" s="25"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="26"/>
+      <c r="A130" s="25"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="26"/>
+      <c r="A131" s="25"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="26"/>
+      <c r="A132" s="25"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="26"/>
+      <c r="A133" s="25"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="26"/>
+      <c r="A134" s="25"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="26"/>
+      <c r="A135" s="25"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="26"/>
+      <c r="A136" s="25"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="26"/>
+      <c r="A137" s="25"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="26"/>
+      <c r="A138" s="25"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="26"/>
+      <c r="A139" s="25"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="26"/>
+      <c r="A140" s="25"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="26"/>
+      <c r="A141" s="25"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="26"/>
+      <c r="A142" s="25"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="26"/>
+      <c r="A143" s="25"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="26"/>
+      <c r="A144" s="25"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="26"/>
+      <c r="A145" s="25"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="26"/>
+      <c r="A146" s="25"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="26"/>
+      <c r="A147" s="25"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="26"/>
+      <c r="A148" s="25"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="26"/>
+      <c r="A149" s="25"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="26"/>
+      <c r="A150" s="25"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="26"/>
+      <c r="A151" s="25"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="26"/>
+      <c r="A152" s="25"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="26"/>
+      <c r="A153" s="25"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="26"/>
+      <c r="A154" s="25"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="26"/>
+      <c r="A155" s="25"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="26"/>
+      <c r="A156" s="25"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="26"/>
+      <c r="A157" s="25"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="26"/>
+      <c r="A158" s="25"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="26"/>
+      <c r="A159" s="25"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="26"/>
+      <c r="A160" s="25"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="26"/>
+      <c r="A161" s="25"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="26"/>
+      <c r="A162" s="25"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="26"/>
+      <c r="A163" s="25"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="26"/>
+      <c r="A164" s="25"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="26"/>
+      <c r="A165" s="25"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="26"/>
+      <c r="A166" s="25"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="26"/>
+      <c r="A167" s="25"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="26"/>
+      <c r="A168" s="25"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="26"/>
+      <c r="A169" s="25"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="26"/>
+      <c r="A170" s="25"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="26"/>
+      <c r="A171" s="25"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="26"/>
+      <c r="A172" s="25"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="26"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="26"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="26"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="26"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="26"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="26"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="26"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="26"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="26"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="26"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="26"/>
+      <c r="A173" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I87" r:id="rId1" xr:uid="{D043FA7F-18A6-4CC2-8487-199E4C8FDC50}"/>
-    <hyperlink ref="I84" r:id="rId2" xr:uid="{0F575B1A-8C6B-4514-A97F-CDF2E47650C5}"/>
+    <hyperlink ref="I79" r:id="rId1" xr:uid="{D043FA7F-18A6-4CC2-8487-199E4C8FDC50}"/>
+    <hyperlink ref="I76" r:id="rId2" xr:uid="{0F575B1A-8C6B-4514-A97F-CDF2E47650C5}"/>
     <hyperlink ref="I11" r:id="rId3" xr:uid="{C2ED3519-5689-45F2-AC95-28CBCCB8DB06}"/>
     <hyperlink ref="I12" r:id="rId4" xr:uid="{D72CD2F1-3F67-4BBD-B5DC-891533270C23}"/>
     <hyperlink ref="I10" r:id="rId5" xr:uid="{ACCBF619-4591-4E5A-A1BD-60E482437F12}"/>
@@ -5202,16 +5490,16 @@
     <hyperlink ref="J32" r:id="rId10" xr:uid="{234AD390-E088-4727-B8FD-F225A7EA0E15}"/>
     <hyperlink ref="J40" r:id="rId11" xr:uid="{E8AB5674-E0BB-4DC5-9553-DA5C09DB21FB}"/>
     <hyperlink ref="J38" r:id="rId12" xr:uid="{8A3CCD6D-16FC-4590-87F3-BC02D8CE87E5}"/>
-    <hyperlink ref="J64" r:id="rId13" xr:uid="{AD85EB34-E090-40C8-9E2A-E9789418A42E}"/>
+    <hyperlink ref="J59" r:id="rId13" xr:uid="{AD85EB34-E090-40C8-9E2A-E9789418A42E}"/>
     <hyperlink ref="J31" r:id="rId14" xr:uid="{F9BE1E24-AFCF-42E2-8978-6419B616351B}"/>
     <hyperlink ref="J28" r:id="rId15" xr:uid="{4B8EF5A9-18F2-4CAF-AD91-00401AA5CE52}"/>
     <hyperlink ref="J27" r:id="rId16" xr:uid="{ED2BB7A5-F001-488A-A68F-35D9B04C9B90}"/>
     <hyperlink ref="J39" r:id="rId17" xr:uid="{D8CC6508-920C-4579-8F24-4CBCD2C1FD27}"/>
     <hyperlink ref="I40" r:id="rId18" xr:uid="{A00C174D-417F-4CB7-9A7E-BF00A794A64C}"/>
     <hyperlink ref="I17" r:id="rId19" xr:uid="{B2F75BB6-405E-46D6-98EC-ECF06DF4CDB7}"/>
-    <hyperlink ref="J66" r:id="rId20" xr:uid="{9D07862E-D867-44C7-88DD-46268348FD38}"/>
-    <hyperlink ref="I66" r:id="rId21" xr:uid="{1AC45CD9-7E0B-4CAD-A4B0-38320790AB4C}"/>
-    <hyperlink ref="I64" r:id="rId22" xr:uid="{930FF8EE-E24E-441B-9253-802EF883E195}"/>
+    <hyperlink ref="J61" r:id="rId20" xr:uid="{9D07862E-D867-44C7-88DD-46268348FD38}"/>
+    <hyperlink ref="I61" r:id="rId21" xr:uid="{1AC45CD9-7E0B-4CAD-A4B0-38320790AB4C}"/>
+    <hyperlink ref="I59" r:id="rId22" xr:uid="{930FF8EE-E24E-441B-9253-802EF883E195}"/>
     <hyperlink ref="I38" r:id="rId23" xr:uid="{B10755A7-A779-4C05-B0FE-2FD50CDEDF19}"/>
     <hyperlink ref="I39" r:id="rId24" xr:uid="{C2EB8259-D6A0-4BCE-8E4F-F25E68CB40BD}"/>
     <hyperlink ref="I41" r:id="rId25" xr:uid="{7FF01956-B37A-4521-9443-5EC156FE243D}"/>
@@ -5220,2191 +5508,1827 @@
     <hyperlink ref="I55" r:id="rId28" xr:uid="{39FFAF59-F9C6-4A85-8727-E258FA6B7D84}"/>
     <hyperlink ref="I51" r:id="rId29" xr:uid="{9B6ED33C-D928-4164-B72D-ECAC659E8122}"/>
     <hyperlink ref="K51" r:id="rId30" display="https://doi.ala.org.au/doi/71d7ca4c-af5e-49d9-b1a4-e802affae4ac/download" xr:uid="{5F03559C-3D02-4509-A3D5-33A54682244B}"/>
+    <hyperlink ref="I77" r:id="rId31" xr:uid="{6C993240-8BD3-48B3-9EF3-140AC8E8D0E4}"/>
+    <hyperlink ref="I81" r:id="rId32" location="/metadata/fb519f28-e3e7-4617-947d-170d6cba4841" xr:uid="{C36945E7-9B73-4FFA-A73A-3A324E78B9A0}"/>
+    <hyperlink ref="I47" r:id="rId33" xr:uid="{704CC56D-E8C2-47AA-8A46-F1ACF4C5BF4F}"/>
+    <hyperlink ref="I21" r:id="rId34" xr:uid="{E124B389-8291-40D8-9429-78888102F18A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId31"/>
-  <legacyDrawing r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId35"/>
+  <legacyDrawing r:id="rId36"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3584FAD3-E4E0-421F-B542-919A8B4E1900}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110278F9-FF2D-4C0B-AD48-95A4C087DA3D}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="76.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27" style="12" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="10" style="11" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="27" style="11" customWidth="1"/>
+    <col min="11" max="11" width="67.42578125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" style="11" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="1" spans="1:12" s="12" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>589</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>783</v>
+      </c>
+      <c r="E1" s="58"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41">
+        <f>SUBTOTAL(103, A4:A103)</f>
         <v>29</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F3">
-        <v>2016</v>
-      </c>
-      <c r="G3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" t="s">
-        <v>162</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F4">
-        <v>2020</v>
-      </c>
-      <c r="G4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J4" t="s">
-        <v>163</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C6" t="s">
-        <v>388</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>309</v>
-      </c>
-      <c r="F6">
-        <v>2020</v>
-      </c>
-      <c r="G6" t="s">
-        <v>358</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>362</v>
-      </c>
-      <c r="J6" t="s">
-        <v>360</v>
-      </c>
-      <c r="K6" t="s">
-        <v>361</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>630</v>
-      </c>
-      <c r="C7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F7">
-        <v>2011</v>
-      </c>
-      <c r="G7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>631</v>
-      </c>
-      <c r="J7" t="s">
-        <v>632</v>
-      </c>
-      <c r="K7" t="s">
-        <v>633</v>
-      </c>
-      <c r="L7" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" t="s">
-        <v>366</v>
-      </c>
-      <c r="C9" t="s">
-        <v>388</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>309</v>
-      </c>
-      <c r="F9">
-        <v>2001</v>
-      </c>
-      <c r="G9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" t="s">
-        <v>368</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="K9" t="s">
-        <v>367</v>
-      </c>
-      <c r="L9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>635</v>
-      </c>
-      <c r="C10" t="s">
-        <v>388</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>309</v>
-      </c>
-      <c r="F10">
-        <v>2017</v>
-      </c>
-      <c r="G10" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" t="s">
-        <v>636</v>
-      </c>
-      <c r="L10" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>638</v>
-      </c>
-      <c r="C11" t="s">
-        <v>639</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
-        <v>309</v>
-      </c>
-      <c r="F11" t="s">
-        <v>639</v>
-      </c>
-      <c r="G11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>313</v>
-      </c>
-      <c r="B16" t="s">
-        <v>646</v>
-      </c>
-      <c r="C16" t="s">
-        <v>390</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>309</v>
-      </c>
-      <c r="G16" t="s">
-        <v>648</v>
-      </c>
-      <c r="H16" t="s">
-        <v>649</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>642</v>
-      </c>
-      <c r="C20" t="s">
-        <v>388</v>
-      </c>
-      <c r="E20" t="s">
-        <v>309</v>
-      </c>
-      <c r="F20">
-        <v>2006</v>
-      </c>
-      <c r="H20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" t="s">
-        <v>641</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" t="s">
-        <v>643</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" t="s">
-        <v>645</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{1BDBE41E-767C-4EF0-A721-BED4878ECD66}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{355F01E8-A5E5-4A68-B179-55841E008E9F}"/>
-    <hyperlink ref="I16" r:id="rId3" xr:uid="{371E504E-7375-47CB-B973-A86F3DF5CD26}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110278F9-FF2D-4C0B-AD48-95A4C087DA3D}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O86"/>
-  <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="10" style="12" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="27" style="12" customWidth="1"/>
-    <col min="11" max="11" width="67.42578125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="28.5703125" style="12" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>591</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>592</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
-        <f>SUBTOTAL(103, A4:A103)</f>
-        <v>30</v>
-      </c>
-      <c r="B2" s="44">
+      <c r="B2" s="42">
         <f>COUNTA(A4:A103)</f>
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:12" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>593</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="59" t="s">
+        <v>590</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="19" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" t="s">
+        <v>592</v>
+      </c>
+      <c r="G13" t="s">
         <v>603</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="H13"/>
+      <c r="I13" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="J5" s="15" t="s">
+      <c r="F15" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" t="s">
+        <v>592</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" t="s">
+        <v>592</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" t="s">
+        <v>592</v>
+      </c>
+      <c r="G20" t="s">
+        <v>601</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="F24" t="s">
+        <v>592</v>
+      </c>
+      <c r="G24" t="s">
+        <v>602</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="12" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" t="s">
+        <v>592</v>
+      </c>
+      <c r="G26" t="s">
+        <v>603</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="K29" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="1:7" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="1:7" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="1:7" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G49" s="19"/>
+    </row>
+    <row r="50" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="1:12" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G51" s="19"/>
+    </row>
+    <row r="52" spans="1:12" s="12" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="1:12" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G53" s="19"/>
+    </row>
+    <row r="54" spans="1:12" s="19" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="12" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F55" t="s">
+        <v>592</v>
+      </c>
+      <c r="G55" t="s">
+        <v>603</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="12" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="F56" t="s">
+        <v>592</v>
+      </c>
+      <c r="G56" t="s">
+        <v>603</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="18" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G57" s="19"/>
+      <c r="I57" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="K57" s="18" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G58" s="19"/>
+      <c r="K58" s="18" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="18" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G60" s="19"/>
+      <c r="K60" s="18" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="K61" s="19" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="44" t="s">
+        <v>480</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="E63" s="17"/>
+      <c r="F63" t="s">
+        <v>592</v>
+      </c>
+      <c r="G63" t="s">
+        <v>603</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C64" s="46" t="s">
+        <v>560</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="F64" t="s">
+        <v>592</v>
+      </c>
+      <c r="G64" t="s">
+        <v>603</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="J64" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="C65" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="F65" t="s">
+        <v>592</v>
+      </c>
+      <c r="G65" t="s">
+        <v>601</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="C66" s="46" t="s">
+        <v>606</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="F66" t="s">
+        <v>592</v>
+      </c>
+      <c r="G66" t="s">
+        <v>601</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="46" t="s">
+        <v>677</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="E67" s="17"/>
+      <c r="F67" t="s">
+        <v>592</v>
+      </c>
+      <c r="G67" t="s">
+        <v>601</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C68" s="46" t="s">
+        <v>578</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="E68" s="17"/>
+      <c r="F68" t="s">
+        <v>592</v>
+      </c>
+      <c r="G68" t="s">
+        <v>601</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="J68" s="39" t="s">
+        <v>585</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="C69" s="46" t="s">
+        <v>561</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>581</v>
+      </c>
+      <c r="F69" t="s">
+        <v>592</v>
+      </c>
+      <c r="G69" t="s">
+        <v>603</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="C70" s="46" t="s">
+        <v>576</v>
+      </c>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="F70" t="s">
+        <v>592</v>
+      </c>
+      <c r="G70" t="s">
+        <v>603</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="38" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="K71" s="19" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="C72" s="46" t="s">
+        <v>577</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="F72" t="s">
+        <v>592</v>
+      </c>
+      <c r="G72" t="s">
+        <v>603</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="C73" s="46" t="s">
+        <v>679</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="F73" t="s">
+        <v>592</v>
+      </c>
+      <c r="G73" t="s">
+        <v>603</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="C74" s="46" t="s">
+        <v>576</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="F74" t="s">
+        <v>592</v>
+      </c>
+      <c r="G74" t="s">
+        <v>603</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="K5" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="B75" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>575</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="J75" s="39" t="s">
+        <v>563</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="38" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="D76" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="E76" s="19" t="s">
+        <v>549</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="K76" s="19" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C77" s="46" t="s">
+        <v>573</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="C78" s="46" t="s">
+        <v>571</v>
+      </c>
+      <c r="D78" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="E78" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="F78" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="G78" s="19"/>
+      <c r="H78" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="K78" s="12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="C79" s="47" t="s">
+        <v>548</v>
+      </c>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="G79" s="19"/>
+      <c r="K79" s="12" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C80" s="46" t="s">
+        <v>572</v>
+      </c>
+      <c r="D80" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="20" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="E80" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="F80" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="G80" s="19"/>
+      <c r="H80" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="C81" s="46" t="s">
+        <v>574</v>
+      </c>
+      <c r="D81" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="E81" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="F81" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="G81" s="19"/>
+      <c r="H81" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="D82" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="F13" t="s">
-        <v>595</v>
-      </c>
-      <c r="G13" t="s">
-        <v>606</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13" s="13" t="s">
-        <v>668</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="J14" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="I15" s="20" t="s">
+      <c r="E82" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="F82" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="G82" s="19"/>
+      <c r="H82" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="K82" s="12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E83" s="17"/>
+      <c r="F83" t="s">
+        <v>592</v>
+      </c>
+      <c r="G83" t="s">
+        <v>603</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="K83" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="F84" t="s">
+        <v>592</v>
+      </c>
+      <c r="G84" t="s">
+        <v>603</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="I84" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="J15" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" t="s">
-        <v>595</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>658</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>659</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="F19" t="s">
-        <v>595</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>664</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>667</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>663</v>
-      </c>
-      <c r="E20" s="45"/>
-      <c r="F20" t="s">
-        <v>595</v>
-      </c>
-      <c r="G20" t="s">
-        <v>604</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13" t="s">
-        <v>666</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-    </row>
-    <row r="21" spans="1:15" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>660</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>659</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>662</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="F24" t="s">
-        <v>595</v>
-      </c>
-      <c r="G24" t="s">
-        <v>605</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" t="s">
-        <v>595</v>
-      </c>
-      <c r="G26" t="s">
-        <v>606</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
-        <v>419</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
-        <v>456</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="K29" s="13" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:7" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:7" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="1:7" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G45" s="20"/>
-    </row>
-    <row r="46" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G47" s="20"/>
-    </row>
-    <row r="48" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G48" s="20"/>
-    </row>
-    <row r="49" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G49" s="20"/>
-    </row>
-    <row r="50" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G50" s="20"/>
-    </row>
-    <row r="51" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G51" s="20"/>
-    </row>
-    <row r="52" spans="1:12" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G52" s="20"/>
-    </row>
-    <row r="53" spans="1:12" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G53" s="20"/>
-    </row>
-    <row r="54" spans="1:12" s="20" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="K54" s="20" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="F55" t="s">
-        <v>595</v>
-      </c>
-      <c r="G55" t="s">
-        <v>606</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="J55" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="L55" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="13" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="F56" t="s">
-        <v>595</v>
-      </c>
-      <c r="G56" t="s">
-        <v>606</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="K56" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="L56" s="13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G57" s="20"/>
-      <c r="I57" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="K57" s="19" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G58" s="20"/>
-      <c r="K58" s="19" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40" t="s">
-        <v>453</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="I59" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="J59" s="20" t="s">
-        <v>488</v>
-      </c>
-      <c r="K59" s="20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G60" s="20"/>
-      <c r="K60" s="19" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="F61" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="K61" s="20" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="46" t="s">
-        <v>482</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="K62" s="20" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="E63" s="18"/>
-      <c r="F63" t="s">
-        <v>595</v>
-      </c>
-      <c r="G63" t="s">
-        <v>606</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="K63" s="13" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C64" s="48" t="s">
-        <v>562</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="E64" s="18"/>
-      <c r="F64" t="s">
-        <v>595</v>
-      </c>
-      <c r="G64" t="s">
-        <v>606</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="J64" s="39" t="s">
-        <v>486</v>
-      </c>
-      <c r="K64" s="13" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="C65" s="48" t="s">
-        <v>571</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>610</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>572</v>
-      </c>
-      <c r="F65" t="s">
-        <v>595</v>
-      </c>
-      <c r="G65" t="s">
-        <v>604</v>
-      </c>
-      <c r="K65" s="13" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
-        <v>608</v>
-      </c>
-      <c r="C66" s="48" t="s">
-        <v>609</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>610</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>572</v>
-      </c>
-      <c r="F66" t="s">
-        <v>595</v>
-      </c>
-      <c r="G66" t="s">
-        <v>604</v>
-      </c>
-      <c r="K66" s="13" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C67" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>584</v>
-      </c>
-      <c r="E67" s="18"/>
-      <c r="F67" t="s">
-        <v>595</v>
-      </c>
-      <c r="G67" t="s">
-        <v>604</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>586</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>589</v>
-      </c>
-      <c r="K67" s="13" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="C68" s="48" t="s">
-        <v>580</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>588</v>
-      </c>
-      <c r="E68" s="18"/>
-      <c r="F68" t="s">
-        <v>595</v>
-      </c>
-      <c r="G68" t="s">
-        <v>604</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="J68" s="41" t="s">
-        <v>587</v>
-      </c>
-      <c r="K68" s="13" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="C69" s="48" t="s">
-        <v>563</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>569</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>583</v>
-      </c>
-      <c r="F69" t="s">
-        <v>595</v>
-      </c>
-      <c r="G69" t="s">
-        <v>606</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>582</v>
-      </c>
-      <c r="K69" s="13" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="C70" s="48" t="s">
-        <v>578</v>
-      </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="F70" t="s">
-        <v>595</v>
-      </c>
-      <c r="G70" t="s">
-        <v>606</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="K70" s="13" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="40" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="F71" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="K71" s="20" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>560</v>
-      </c>
-      <c r="C72" s="48" t="s">
-        <v>579</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="F72" t="s">
-        <v>595</v>
-      </c>
-      <c r="G72" t="s">
-        <v>606</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="K72" s="13" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="C73" s="48" t="s">
-        <v>683</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="F73" t="s">
-        <v>595</v>
-      </c>
-      <c r="G73" t="s">
-        <v>606</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>552</v>
-      </c>
-      <c r="K73" s="13" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="C74" s="48" t="s">
-        <v>578</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="F74" t="s">
-        <v>595</v>
-      </c>
-      <c r="G74" t="s">
-        <v>606</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="K74" s="13" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="C75" s="48" t="s">
-        <v>577</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="J75" s="41" t="s">
-        <v>565</v>
-      </c>
-      <c r="K75" s="13" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="40" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>550</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="F76" s="20" t="s">
-        <v>594</v>
-      </c>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="K76" s="20" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="C77" s="48" t="s">
-        <v>575</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>566</v>
-      </c>
-      <c r="E77" s="18"/>
-      <c r="F77" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>657</v>
-      </c>
-      <c r="I77" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="J77" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="K77" s="13" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="C78" s="48" t="s">
-        <v>573</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="F78" s="39" t="s">
-        <v>595</v>
-      </c>
-      <c r="G78" s="20"/>
-      <c r="H78" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="K78" s="13" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="C79" s="49" t="s">
-        <v>550</v>
-      </c>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="G79" s="20"/>
-    </row>
-    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="C80" s="48" t="s">
-        <v>574</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="F80" s="39" t="s">
-        <v>595</v>
-      </c>
-      <c r="G80" s="20"/>
-      <c r="H80" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="I80" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="K80" s="13" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="C81" s="48" t="s">
-        <v>576</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="F81" s="39" t="s">
-        <v>595</v>
-      </c>
-      <c r="G81" s="20"/>
-      <c r="H81" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="I81" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="K81" s="13" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="F82" s="39" t="s">
-        <v>595</v>
-      </c>
-      <c r="G82" s="20"/>
-      <c r="H82" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="I82" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="K82" s="13" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C83" s="13" t="s">
+      <c r="K84" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="D83" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E83" s="18"/>
-      <c r="F83" t="s">
-        <v>595</v>
-      </c>
-      <c r="G83" t="s">
-        <v>606</v>
-      </c>
-      <c r="I83" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="J83" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="K83" s="13" t="s">
+      <c r="D85" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E85" s="17"/>
+      <c r="F85" t="s">
+        <v>592</v>
+      </c>
+      <c r="G85" t="s">
+        <v>603</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="K85" s="12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C84" s="13" t="s">
+    <row r="86" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="D84" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F84" t="s">
-        <v>595</v>
-      </c>
-      <c r="G84" t="s">
-        <v>606</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="I84" s="13" t="s">
+      <c r="D86" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F86" t="s">
+        <v>592</v>
+      </c>
+      <c r="G86" t="s">
+        <v>603</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="I86" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="K84" s="13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="E85" s="18"/>
-      <c r="F85" t="s">
-        <v>595</v>
-      </c>
-      <c r="G85" t="s">
-        <v>606</v>
-      </c>
-      <c r="I85" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="K85" s="13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="F86" t="s">
-        <v>595</v>
-      </c>
-      <c r="G86" t="s">
-        <v>606</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="I86" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="K86" s="13" t="s">
+      <c r="K86" s="12" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7429,17 +7353,780 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03F7EC8-12CF-4572-BBA6-1F02ACA62E97}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
+        <v>772</v>
+      </c>
+      <c r="B1" s="55"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>773</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>774</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B5" t="s">
+        <v>750</v>
+      </c>
+      <c r="C5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>775</v>
+      </c>
+      <c r="B6" t="s">
+        <v>727</v>
+      </c>
+      <c r="C6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>775</v>
+      </c>
+      <c r="B7" t="s">
+        <v>742</v>
+      </c>
+      <c r="C7" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>775</v>
+      </c>
+      <c r="B8" t="s">
+        <v>763</v>
+      </c>
+      <c r="C8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>775</v>
+      </c>
+      <c r="B9" t="s">
+        <v>770</v>
+      </c>
+      <c r="C9" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>775</v>
+      </c>
+      <c r="B10" t="s">
+        <v>769</v>
+      </c>
+      <c r="C10" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>775</v>
+      </c>
+      <c r="B11" t="s">
+        <v>759</v>
+      </c>
+      <c r="C11" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>775</v>
+      </c>
+      <c r="B12" t="s">
+        <v>767</v>
+      </c>
+      <c r="C12" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>775</v>
+      </c>
+      <c r="B13" t="s">
+        <v>764</v>
+      </c>
+      <c r="C13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>775</v>
+      </c>
+      <c r="B14" t="s">
+        <v>766</v>
+      </c>
+      <c r="C14" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>775</v>
+      </c>
+      <c r="B15" t="s">
+        <v>765</v>
+      </c>
+      <c r="C15" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>775</v>
+      </c>
+      <c r="B16" t="s">
+        <v>768</v>
+      </c>
+      <c r="C16" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>776</v>
+      </c>
+      <c r="B17" t="s">
+        <v>771</v>
+      </c>
+      <c r="C17" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>776</v>
+      </c>
+      <c r="B18" t="s">
+        <v>761</v>
+      </c>
+      <c r="C18" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>776</v>
+      </c>
+      <c r="B19" t="s">
+        <v>738</v>
+      </c>
+      <c r="C19" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>776</v>
+      </c>
+      <c r="B20" t="s">
+        <v>760</v>
+      </c>
+      <c r="C20" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>776</v>
+      </c>
+      <c r="B21" t="s">
+        <v>752</v>
+      </c>
+      <c r="C21" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>777</v>
+      </c>
+      <c r="B22" t="s">
+        <v>740</v>
+      </c>
+      <c r="C22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>776</v>
+      </c>
+      <c r="B23" t="s">
+        <v>744</v>
+      </c>
+      <c r="C23" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>776</v>
+      </c>
+      <c r="B24" t="s">
+        <v>746</v>
+      </c>
+      <c r="C24" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>776</v>
+      </c>
+      <c r="B25" t="s">
+        <v>748</v>
+      </c>
+      <c r="C25" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>778</v>
+      </c>
+      <c r="B26" t="s">
+        <v>754</v>
+      </c>
+      <c r="C26" t="s">
+        <v>755</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5561EB9F-A325-4A99-A574-B1A229DA1052}">
-  <dimension ref="A1:F59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E832ABA-3C39-4970-BF96-8C6415059D2D}">
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="55" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>725</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3584FAD3-E4E0-421F-B542-919A8B4E1900}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3">
+        <v>2016</v>
+      </c>
+      <c r="G3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>162</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F4">
+        <v>2020</v>
+      </c>
+      <c r="G4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6">
+        <v>2020</v>
+      </c>
+      <c r="G6" t="s">
+        <v>356</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>360</v>
+      </c>
+      <c r="J6" t="s">
+        <v>358</v>
+      </c>
+      <c r="K6" t="s">
+        <v>359</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>627</v>
+      </c>
+      <c r="C7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7">
+        <v>2011</v>
+      </c>
+      <c r="G7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>628</v>
+      </c>
+      <c r="J7" t="s">
+        <v>629</v>
+      </c>
+      <c r="K7" t="s">
+        <v>630</v>
+      </c>
+      <c r="L7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F9">
+        <v>2001</v>
+      </c>
+      <c r="G9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>366</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K9" t="s">
+        <v>365</v>
+      </c>
+      <c r="L9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>632</v>
+      </c>
+      <c r="C10" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10">
+        <v>2017</v>
+      </c>
+      <c r="G10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>633</v>
+      </c>
+      <c r="L10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>635</v>
+      </c>
+      <c r="C11" t="s">
+        <v>636</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" t="s">
+        <v>636</v>
+      </c>
+      <c r="G11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" t="s">
+        <v>643</v>
+      </c>
+      <c r="C16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>308</v>
+      </c>
+      <c r="G16" t="s">
+        <v>645</v>
+      </c>
+      <c r="H16" t="s">
+        <v>646</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>639</v>
+      </c>
+      <c r="C20" t="s">
+        <v>386</v>
+      </c>
+      <c r="E20" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20">
+        <v>2006</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>638</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" t="s">
+        <v>640</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>642</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{1BDBE41E-767C-4EF0-A721-BED4878ECD66}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{355F01E8-A5E5-4A68-B179-55841E008E9F}"/>
+    <hyperlink ref="I16" r:id="rId3" xr:uid="{371E504E-7375-47CB-B973-A86F3DF5CD26}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5561EB9F-A325-4A99-A574-B1A229DA1052}">
+  <dimension ref="A1:F59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" customWidth="1"/>
     <col min="3" max="3" width="71" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
@@ -7447,11 +8134,12 @@
     <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
         <v>91</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>4</v>
@@ -7494,19 +8182,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D7" t="s">
         <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7646,27 +8334,27 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E21" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -7719,19 +8407,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>292</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="D27" t="s">
         <v>170</v>
       </c>
       <c r="E27" t="s">
+        <v>294</v>
+      </c>
+      <c r="F27" t="s">
         <v>295</v>
-      </c>
-      <c r="F27" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -7827,13 +8515,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E38" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -7872,19 +8560,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>339</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>340</v>
       </c>
       <c r="D44" t="s">
         <v>171</v>
       </c>
       <c r="E44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -7920,46 +8608,46 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>317</v>
+      </c>
+      <c r="B52" t="s">
         <v>318</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>171</v>
       </c>
       <c r="E52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D53" t="s">
         <v>171</v>
       </c>
       <c r="E53" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D54" t="s">
         <v>171</v>
@@ -7970,24 +8658,24 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C55" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D55" t="s">
         <v>171</v>
       </c>
       <c r="E55" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C56" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D56" t="s">
         <v>172</v>
@@ -7998,41 +8686,41 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C57" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D57" t="s">
         <v>171</v>
       </c>
       <c r="E57" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C58" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E58" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C59" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D59" t="s">
         <v>171</v>
       </c>
       <c r="E59" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -8071,13 +8759,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54A1F34-1DD7-4D62-93CD-BBF3697063AD}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8086,47 +8772,47 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="G9" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -8135,13 +8821,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BAFED1-0F4E-4CAC-AD1F-613628691963}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8150,7 +8834,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8161,7 +8845,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
@@ -8169,57 +8853,57 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B5" t="s">
+        <v>615</v>
+      </c>
+      <c r="F5" t="s">
         <v>616</v>
-      </c>
-      <c r="B5" t="s">
-        <v>618</v>
-      </c>
-      <c r="F5" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B6" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B8" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F8" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
